--- a/Minggu_8/Jobsheet8/public/template_user.xlsx
+++ b/Minggu_8/Jobsheet8/public/template_user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS 10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon\laragon\www\PWL182D\Minggu_8\Jobsheet8\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68C9D2D-B0EF-4081-91F9-54B396FE766A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC9B6F6-3EDC-4366-816E-2D45B4EED19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1440" windowWidth="17655" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>user_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>level_id</t>
   </si>
@@ -139,7 +136,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -480,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,81 +495,63 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
